--- a/ontology/requirements/requirements.xlsx
+++ b/ontology/requirements/requirements.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\rml-lv\ontology\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AC0C4C-B250-4D83-8B91-5459A7536ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40558EE-7E8E-401B-B117-0231488D52D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3B92CCF-2AD2-9D49-BEEA-2419F5A8B9FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E3B92CCF-2AD2-9D49-BEEA-2419F5A8B9FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="version 1" sheetId="1" r:id="rId1"/>
+    <sheet name="version 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Identifier</t>
   </si>
@@ -77,9 +78,6 @@
     <t>rml-lv-r6</t>
   </si>
   <si>
-    <t>Create references to the position of a data record in a logical iteration</t>
-  </si>
-  <si>
     <t>Describe structural properties of data records</t>
   </si>
   <si>
@@ -90,6 +88,45 @@
   </si>
   <si>
     <t xml:space="preserve">rml-lv &amp; mapping challenge C5b </t>
+  </si>
+  <si>
+    <t>rml-lv-r7</t>
+  </si>
+  <si>
+    <t>Create a reference to the position of a data record in a sequence of data records</t>
+  </si>
+  <si>
+    <t>A logical view describes a source format agnostic view over a data soure</t>
+  </si>
+  <si>
+    <t>A field gives a name to data records derived from a data source</t>
+  </si>
+  <si>
+    <t>A nested field may flatten a nested data source</t>
+  </si>
+  <si>
+    <t>An iterable field may define a new reference formulation and iterator</t>
+  </si>
+  <si>
+    <t>A logical view join may add fields from another logical view to a logical view subjected to zero or more join conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An expression may reference a field name of an  expression field to retrieve the value of the data records defined by that field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An expression  may the index of a field or abstract logical source of a logical view may to retrieve the position of a data record or logical iteration with a sequence of data records or logical iterations. </t>
+  </si>
+  <si>
+    <t>rml-lv-r8</t>
+  </si>
+  <si>
+    <t>rml-lv-r9</t>
+  </si>
+  <si>
+    <t>A field may describe structural properties of data records</t>
+  </si>
+  <si>
+    <t>A field may describe structural relations between data records</t>
   </si>
 </sst>
 </file>
@@ -472,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD387039-14E8-1C40-88EB-6D939C392012}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -501,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -512,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -526,12 +563,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -542,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -553,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -588,6 +625,169 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1641CC76-0306-4500-8F84-3516D2E66764}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="60.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ontology/requirements/requirements.xlsx
+++ b/ontology/requirements/requirements.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\rml-lv\ontology\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40558EE-7E8E-401B-B117-0231488D52D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6485E2CB-77A7-43DE-BA1E-B75DDAAB413C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E3B92CCF-2AD2-9D49-BEEA-2419F5A8B9FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3B92CCF-2AD2-9D49-BEEA-2419F5A8B9FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="version 1" sheetId="1" r:id="rId1"/>
-    <sheet name="version 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Identifier</t>
   </si>
@@ -60,15 +59,6 @@
     <t>rml-lv</t>
   </si>
   <si>
-    <t>Flatten a nested data source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Join two or more data sources </t>
-  </si>
-  <si>
-    <t>Handle data sources with mixed data formats</t>
-  </si>
-  <si>
     <t>rml-lv-r4</t>
   </si>
   <si>
@@ -78,12 +68,6 @@
     <t>rml-lv-r6</t>
   </si>
   <si>
-    <t>Describe structural properties of data records</t>
-  </si>
-  <si>
-    <t>Describe structural relations between data records</t>
-  </si>
-  <si>
     <t>rml-lv &amp; mapping challenge C2a</t>
   </si>
   <si>
@@ -91,9 +75,6 @@
   </si>
   <si>
     <t>rml-lv-r7</t>
-  </si>
-  <si>
-    <t>Create a reference to the position of a data record in a sequence of data records</t>
   </si>
   <si>
     <t>A logical view describes a source format agnostic view over a data soure</t>
@@ -506,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD387039-14E8-1C40-88EB-6D939C392012}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1641CC76-0306-4500-8F84-3516D2E66764}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -530,15 +511,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -546,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -557,178 +538,51 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1641CC76-0306-4500-8F84-3516D2E66764}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="60.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="8" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -736,10 +590,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -747,10 +601,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>

--- a/ontology/requirements/requirements.xlsx
+++ b/ontology/requirements/requirements.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\rml-lv\ontology\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6485E2CB-77A7-43DE-BA1E-B75DDAAB413C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F3A02D-626F-4206-92FE-A447A1575F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3B92CCF-2AD2-9D49-BEEA-2419F5A8B9FD}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{D9F67147-0460-4ABC-966B-D3123D106A71}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,95 +36,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+  <si>
+    <t>rml-lv</t>
+  </si>
+  <si>
+    <t>Describe structural relations between data records</t>
+  </si>
+  <si>
+    <t>rml-lv-r6</t>
+  </si>
+  <si>
+    <t>Describe structural properties of data records</t>
+  </si>
+  <si>
+    <t>rml-lv-r5</t>
+  </si>
+  <si>
+    <t>Create a reference to the position of a data record in a sequence of data records</t>
+  </si>
+  <si>
+    <t>rml-lv-r4</t>
+  </si>
+  <si>
+    <t>Handle data sources with mixed data formats</t>
+  </si>
+  <si>
+    <t>rml-lv-r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rml-lv &amp; mapping challenge C5b </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Join two or more data sources </t>
+  </si>
+  <si>
+    <t>rml-lv-r2</t>
+  </si>
+  <si>
+    <t>rml-lv &amp; mapping challenge C2a</t>
+  </si>
+  <si>
+    <t>rml-lv-r1</t>
+  </si>
+  <si>
+    <t>Provenance</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
   <si>
     <t>Identifier</t>
   </si>
   <si>
-    <t>Requirement</t>
-  </si>
-  <si>
-    <t>Provenance</t>
-  </si>
-  <si>
-    <t>rml-lv-r1</t>
-  </si>
-  <si>
-    <t>rml-lv-r2</t>
-  </si>
-  <si>
-    <t>rml-lv-r3</t>
-  </si>
-  <si>
-    <t>rml-lv</t>
-  </si>
-  <si>
-    <t>rml-lv-r4</t>
-  </si>
-  <si>
-    <t>rml-lv-r5</t>
-  </si>
-  <si>
-    <t>rml-lv-r6</t>
-  </si>
-  <si>
-    <t>rml-lv &amp; mapping challenge C2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rml-lv &amp; mapping challenge C5b </t>
-  </si>
-  <si>
-    <t>rml-lv-r7</t>
-  </si>
-  <si>
-    <t>A logical view describes a source format agnostic view over a data soure</t>
-  </si>
-  <si>
-    <t>A field gives a name to data records derived from a data source</t>
-  </si>
-  <si>
-    <t>A nested field may flatten a nested data source</t>
-  </si>
-  <si>
-    <t>An iterable field may define a new reference formulation and iterator</t>
-  </si>
-  <si>
-    <t>A logical view join may add fields from another logical view to a logical view subjected to zero or more join conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An expression may reference a field name of an  expression field to retrieve the value of the data records defined by that field. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">An expression  may the index of a field or abstract logical source of a logical view may to retrieve the position of a data record or logical iteration with a sequence of data records or logical iterations. </t>
-  </si>
-  <si>
-    <t>rml-lv-r8</t>
-  </si>
-  <si>
-    <t>rml-lv-r9</t>
-  </si>
-  <si>
-    <t>A field may describe structural properties of data records</t>
-  </si>
-  <si>
-    <t>A field may describe structural relations between data records</t>
+    <t>Preserve the hierarchical context of a data source when mapping it to rdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -168,11 +144,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,9 +168,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,39 +178,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -286,7 +262,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -338,7 +314,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,13 +373,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -412,6 +381,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -476,22 +452,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1641CC76-0306-4500-8F84-3516D2E66764}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A6D9F6-316E-4FA4-9E7D-21F259541D69}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -501,150 +497,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>